--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>702383.7032113952</v>
+        <v>724714.4085062168</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843294</v>
+        <v>2305207.638772118</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6408768.588766928</v>
+        <v>6939413.357101317</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>91.27348153034529</v>
+        <v>243.7924853425797</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.5168019860619</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398615</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.6873584292106</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>195.1569564646396</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>24.34318456170507</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1139,19 +1141,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>52.06066913184686</v>
       </c>
       <c r="V8" t="n">
-        <v>165.3472840310264</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170461</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>155.2022955251545</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>373.704912211657</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>195.1569564646393</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
-        <v>240.9739924675005</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,16 +1609,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>97.36454674747804</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>259.7549311940119</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1771,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>47.61404849749868</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1895,10 +1897,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
-        <v>31.24391673888241</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>43.77283765622057</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950073</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>270.3398454666689</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>99.92737017624191</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>35.20092700998688</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437698</v>
       </c>
       <c r="H44" t="n">
-        <v>185.6099927615097</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>984.2477458242812</v>
+        <v>2457.066600207384</v>
       </c>
       <c r="C2" t="n">
-        <v>984.2477458242812</v>
+        <v>2018.924127390807</v>
       </c>
       <c r="D2" t="n">
-        <v>548.3379609987257</v>
+        <v>1583.014342565252</v>
       </c>
       <c r="E2" t="n">
-        <v>548.3379609987257</v>
+        <v>1149.239597723547</v>
       </c>
       <c r="F2" t="n">
-        <v>548.3379609987257</v>
+        <v>721.3721681327547</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9401296219896</v>
+        <v>319.9743367560186</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M2" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V2" t="n">
-        <v>1811.676332945317</v>
+        <v>3302.508634112981</v>
       </c>
       <c r="W2" t="n">
-        <v>1811.676332945317</v>
+        <v>3302.508634112981</v>
       </c>
       <c r="X2" t="n">
-        <v>1392.533869524628</v>
+        <v>2883.366170692292</v>
       </c>
       <c r="Y2" t="n">
-        <v>984.2477458242812</v>
+        <v>2883.366170692292</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N3" t="n">
-        <v>732.2102786755574</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="O3" t="n">
-        <v>732.2102786755574</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>961.2411428278582</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>761.378527806567</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>761.378527806567</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S4" t="n">
-        <v>2671.404303635552</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T4" t="n">
-        <v>2425.524857214007</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U4" t="n">
-        <v>2147.091856467112</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V4" t="n">
-        <v>1860.136348337543</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W4" t="n">
-        <v>1588.109943923834</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X4" t="n">
-        <v>1342.718189257247</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y4" t="n">
-        <v>1115.298518571355</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>916.3868681652491</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C5" t="n">
-        <v>916.3868681652491</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3868681652491</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E5" t="n">
-        <v>482.6121233235442</v>
+        <v>501.5867306472353</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>1887.539675852264</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387163</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="V5" t="n">
-        <v>2374.617736571424</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.762281982458</v>
+        <v>3063.141890737016</v>
       </c>
       <c r="X5" t="n">
-        <v>1550.619818561768</v>
+        <v>2643.999427316327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1142.333694861421</v>
+        <v>2235.71330361598</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="N6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="O6" t="n">
-        <v>732.2102786755574</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P6" t="n">
-        <v>1409.675863618363</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>764.2385311503645</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C7" t="n">
-        <v>591.6768196335894</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D7" t="n">
-        <v>425.7988268351121</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E7" t="n">
-        <v>256.0408230858494</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F7" t="n">
-        <v>79.33376904760556</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>79.33376904760556</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H7" t="n">
-        <v>79.33376904760556</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.162934933549</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.283488512004</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U7" t="n">
-        <v>1987.850487765109</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V7" t="n">
-        <v>1700.894979635539</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W7" t="n">
-        <v>1428.868575221831</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X7" t="n">
-        <v>1183.476820555243</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.0571498693516</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1319.919739525836</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.919739525836</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D8" t="n">
-        <v>884.0099547002803</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E8" t="n">
-        <v>884.0099547002803</v>
+        <v>501.5867306472353</v>
       </c>
       <c r="F8" t="n">
-        <v>456.1425251094881</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M8" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654254</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052193</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3392.47182257558</v>
       </c>
       <c r="V8" t="n">
-        <v>2570.217228020399</v>
+        <v>3029.854872509406</v>
       </c>
       <c r="W8" t="n">
-        <v>2165.361773431433</v>
+        <v>2624.99941792044</v>
       </c>
       <c r="X8" t="n">
-        <v>1746.219310010744</v>
+        <v>2205.85695449975</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.219310010744</v>
+        <v>1797.570830799404</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="N9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="O9" t="n">
-        <v>732.2102786755574</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="P9" t="n">
-        <v>1409.675863618363</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1045.142905119309</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C10" t="n">
-        <v>872.5811936025335</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D10" t="n">
-        <v>706.7032008040562</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E10" t="n">
-        <v>536.9451970547935</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F10" t="n">
-        <v>360.2381430165498</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G10" t="n">
-        <v>194.6468680423774</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.404303635552</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T10" t="n">
-        <v>2425.524857214007</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U10" t="n">
-        <v>2268.754861734053</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V10" t="n">
-        <v>1981.799353604483</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W10" t="n">
-        <v>1709.772949190775</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X10" t="n">
-        <v>1464.381194524188</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y10" t="n">
-        <v>1236.961523838296</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1550.619818561768</v>
+        <v>2006.541971984243</v>
       </c>
       <c r="C11" t="n">
-        <v>1550.619818561768</v>
+        <v>1568.399499167667</v>
       </c>
       <c r="D11" t="n">
-        <v>1173.140109257064</v>
+        <v>1132.489714342111</v>
       </c>
       <c r="E11" t="n">
-        <v>1173.140109257064</v>
+        <v>698.7149695004064</v>
       </c>
       <c r="F11" t="n">
-        <v>745.2726796662719</v>
+        <v>270.8475399096141</v>
       </c>
       <c r="G11" t="n">
-        <v>343.8748482895357</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>943.7698379261326</v>
       </c>
       <c r="M11" t="n">
-        <v>54.74469373275195</v>
+        <v>1850.888420010473</v>
       </c>
       <c r="N11" t="n">
-        <v>666.6506660403358</v>
+        <v>2758.007002094814</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V11" t="n">
-        <v>2374.617736571424</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W11" t="n">
-        <v>1969.762281982458</v>
+        <v>3260.270129590187</v>
       </c>
       <c r="X11" t="n">
-        <v>1550.619818561768</v>
+        <v>2841.127666169498</v>
       </c>
       <c r="Y11" t="n">
-        <v>1550.619818561768</v>
+        <v>2432.841542469151</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8805072316101</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="N12" t="n">
-        <v>923.3460921744155</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="O12" t="n">
-        <v>923.3460921744155</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="P12" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1045.142905119309</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C13" t="n">
-        <v>872.5811936025335</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D13" t="n">
-        <v>706.7032008040562</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E13" t="n">
-        <v>536.9451970547935</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>360.2381430165498</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>194.6468680423774</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.162934933549</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2268.754861734053</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2268.754861734053</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1981.799353604483</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1709.772949190775</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1464.381194524188</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1236.961523838296</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>153.0927207504066</v>
+        <v>1643.92502191807</v>
       </c>
       <c r="C14" t="n">
-        <v>153.0927207504066</v>
+        <v>1205.782549101493</v>
       </c>
       <c r="D14" t="n">
-        <v>153.0927207504066</v>
+        <v>769.8727642759377</v>
       </c>
       <c r="E14" t="n">
-        <v>54.74469373275195</v>
+        <v>336.0980194342329</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K14" t="n">
-        <v>732.2102786755574</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L14" t="n">
-        <v>1409.675863618363</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M14" t="n">
-        <v>2087.141448561168</v>
+        <v>306.9256944654254</v>
       </c>
       <c r="N14" t="n">
-        <v>2737.234686637598</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O14" t="n">
-        <v>2737.234686637598</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P14" t="n">
-        <v>2737.234686637598</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S14" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T14" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U14" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V14" t="n">
-        <v>1811.676332945317</v>
+        <v>3302.50863411298</v>
       </c>
       <c r="W14" t="n">
-        <v>1406.82087835635</v>
+        <v>2897.653179524013</v>
       </c>
       <c r="X14" t="n">
-        <v>987.678414935661</v>
+        <v>2478.510716103324</v>
       </c>
       <c r="Y14" t="n">
-        <v>579.3922912353144</v>
+        <v>2070.224592402978</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K15" t="n">
-        <v>732.2102786755574</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L15" t="n">
-        <v>1040.518870268755</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M15" t="n">
-        <v>1717.984455211561</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="N15" t="n">
-        <v>1717.984455211561</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="O15" t="n">
-        <v>1717.984455211561</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="P15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.2407308096831</v>
+        <v>893.942719320877</v>
       </c>
       <c r="C16" t="n">
-        <v>732.679019292908</v>
+        <v>721.381007804102</v>
       </c>
       <c r="D16" t="n">
-        <v>566.8010264944307</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="E16" t="n">
-        <v>397.0430227451681</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2653.165134592867</v>
+        <v>2641.867123104061</v>
       </c>
       <c r="T16" t="n">
-        <v>2407.285688171322</v>
+        <v>2395.987676682516</v>
       </c>
       <c r="U16" t="n">
-        <v>2128.852687424428</v>
+        <v>2117.554675935621</v>
       </c>
       <c r="V16" t="n">
-        <v>1841.897179294858</v>
+        <v>1830.599167806052</v>
       </c>
       <c r="W16" t="n">
-        <v>1569.87077488115</v>
+        <v>1558.572763392343</v>
       </c>
       <c r="X16" t="n">
-        <v>1324.479020214562</v>
+        <v>1313.181008725756</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.05934952867</v>
+        <v>1085.761338039864</v>
       </c>
     </row>
     <row r="17">
@@ -5516,7 +5518,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L17" t="n">
         <v>306.1208027766299</v>
@@ -5543,7 +5545,7 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5604,13 +5606,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,49 +5755,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>4648.527086152673</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>5113.042013538981</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>5113.042013538981</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>4648.527086152673</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>4648.527086152673</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>126.8499155856325</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3895.354312623555</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4723.664187456951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6312,13 +6314,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3205.876241053795</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>3205.876241053795</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>3039.998248255318</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>2870.240244506055</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>2693.533190467811</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>2527.941915493639</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>4429.488197668539</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>4142.53268953897</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>3870.506285125261</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>3625.114530458674</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>3397.694859772782</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6445,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G29" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,22 +6469,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>4404.345300871277</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>4404.345300871277</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>4404.345300871277</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,22 +6706,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>287.8657185439749</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>3343.699788461171</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>3171.138076944395</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>3005.260084145918</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>2835.502080396655</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>2658.795026358412</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>4845.744745822809</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>4567.311745075915</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>4280.356236946345</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>4008.329832532637</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>3762.938077866049</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>3535.518407180158</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,46 +6943,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7026,7 +7028,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O36" t="n">
         <v>1765.500601749588</v>
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,10 +7177,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>388.1086717343205</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
         <v>1463.16863798718</v>
@@ -7260,13 +7262,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
         <v>1765.500601749588</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.855915180241</v>
+        <v>1643.925021918069</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.713442363665</v>
+        <v>1643.925021918069</v>
       </c>
       <c r="D41" t="n">
-        <v>916.8036575381091</v>
+        <v>1208.015237092513</v>
       </c>
       <c r="E41" t="n">
-        <v>483.0289126964042</v>
+        <v>774.2404922508085</v>
       </c>
       <c r="F41" t="n">
-        <v>55.16148310561195</v>
+        <v>346.3730626600163</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>306.9256944654247</v>
       </c>
       <c r="N41" t="n">
-        <v>732.2102786755574</v>
+        <v>1214.044276549765</v>
       </c>
       <c r="O41" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634105</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467502</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426096</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179153</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179153</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179153</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179153</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3302.50863411298</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>2897.653179524013</v>
       </c>
       <c r="X41" t="n">
-        <v>2318.092223216909</v>
+        <v>2478.510716103323</v>
       </c>
       <c r="Y41" t="n">
-        <v>2217.155485665149</v>
+        <v>2070.224592402977</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="I42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="J42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="K42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="L42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="M42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="N42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="O42" t="n">
-        <v>499.7799316366797</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P42" t="n">
-        <v>1177.245516579485</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>467.4559101927055</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089077</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873695</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T43" t="n">
-        <v>2635.847811706272</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U43" t="n">
-        <v>2357.414810959378</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1082.186628472167</v>
+        <v>2006.541971984243</v>
       </c>
       <c r="C44" t="n">
-        <v>644.0441556555902</v>
+        <v>1568.399499167666</v>
       </c>
       <c r="D44" t="n">
-        <v>644.0441556555902</v>
+        <v>1132.48971434211</v>
       </c>
       <c r="E44" t="n">
-        <v>644.0441556555902</v>
+        <v>698.7149695004055</v>
       </c>
       <c r="F44" t="n">
-        <v>644.0441556555902</v>
+        <v>270.8475399096132</v>
       </c>
       <c r="G44" t="n">
-        <v>242.6463242788541</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="M44" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654247</v>
       </c>
       <c r="N44" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549765</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634105</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467502</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426096</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179153</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179153</v>
       </c>
       <c r="T44" t="n">
-        <v>2517.167459510636</v>
+        <v>3665.125584179153</v>
       </c>
       <c r="U44" t="n">
-        <v>2257.945156827654</v>
+        <v>3665.125584179153</v>
       </c>
       <c r="V44" t="n">
-        <v>1895.32820676148</v>
+        <v>3665.125584179153</v>
       </c>
       <c r="W44" t="n">
-        <v>1490.472752172513</v>
+        <v>3260.270129590186</v>
       </c>
       <c r="X44" t="n">
-        <v>1490.472752172513</v>
+        <v>2841.127666169497</v>
       </c>
       <c r="Y44" t="n">
-        <v>1082.186628472167</v>
+        <v>2432.84154246915</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="I45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="J45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="K45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="L45" t="n">
-        <v>382.60715354234</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="M45" t="n">
-        <v>382.60715354234</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="N45" t="n">
-        <v>382.60715354234</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="O45" t="n">
-        <v>382.60715354234</v>
+        <v>980.4210937679234</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>905.2407308096831</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C46" t="n">
-        <v>732.679019292908</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D46" t="n">
-        <v>566.8010264944307</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E46" t="n">
-        <v>397.0430227451681</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>220.3359687069243</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358306</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873695</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2653.165134592867</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2407.285688171322</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2128.852687424428</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1841.897179294858</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1569.87077488115</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1324.479020214562</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.05934952867</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>645.4024255556852</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8222,22 +8224,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>406.8457045807058</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P6" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>311.4228197911089</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8693,25 +8695,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>879.2599254975248</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="N11" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593994</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="N14" t="n">
-        <v>656.6598364408383</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9164,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="O18" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9488,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1105.865833350039</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9659,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,10 +9728,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>469.2069973599073</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.4482437666393</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209135</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,13 +10354,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>979.9836670718073</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10674,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>288.7351832965059</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10908,16 +10910,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11066,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109512</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>916.2813960447883</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>449.5305433373007</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>235.9830129109512</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447883</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11379,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>916.2813960447883</v>
       </c>
       <c r="P45" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651196</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>194.9653714808706</v>
+        <v>42.44636766863616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.38363054573531</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.0170157719086</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.3492163508481</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,10 +22840,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>61.47312319151371</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>63.43016517136635</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23027,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,13 +23074,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>204.5694105243064</v>
       </c>
       <c r="V8" t="n">
-        <v>193.6434965344853</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23191,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>57.84577476564289</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>202.2268965983294</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
-        <v>2.446659489828818</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>332.0724506458097</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>163.8338241008724</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>110.0349065174846</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1599680048248</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
-        <v>107.2592358276468</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.146865729423354</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>127.0440075962999</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.2758922871012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25837,10 +25839,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>208.2197249473424</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>201.8142751191989</v>
       </c>
       <c r="H44" t="n">
-        <v>100.6288602497062</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>437808.1305989981</v>
+        <v>529173.4627041841</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>437808.130598998</v>
+        <v>529173.462704184</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>437808.1305989981</v>
+        <v>529173.462704184</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437808.130598998</v>
+        <v>529173.4627041841</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437808.1305989981</v>
+        <v>529173.462704184</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671743.4197751242</v>
+        <v>671743.4197751243</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671743.4197751242</v>
+        <v>671743.4197751243</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671743.4197751242</v>
+        <v>671743.4197751243</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437808.1305989981</v>
+        <v>529173.462704184</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437808.1305989982</v>
+        <v>529173.462704184</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163104.9898309993</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="C2" t="n">
-        <v>163104.9898309993</v>
+        <v>197143.0547329313</v>
       </c>
       <c r="D2" t="n">
-        <v>163104.9898309993</v>
+        <v>197143.0547329313</v>
       </c>
       <c r="E2" t="n">
-        <v>163104.9898309993</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="F2" t="n">
-        <v>163104.9898309993</v>
+        <v>197143.0547329313</v>
       </c>
       <c r="G2" t="n">
         <v>250257.3524652424</v>
@@ -26350,10 +26352,10 @@
         <v>250257.3524652424</v>
       </c>
       <c r="O2" t="n">
-        <v>163104.9898309993</v>
+        <v>197143.0547329313</v>
       </c>
       <c r="P2" t="n">
-        <v>163104.9898309993</v>
+        <v>197143.0547329313</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867177</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527209</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="C4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="D4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="E4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="F4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26450,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833576</v>
       </c>
       <c r="P4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833577</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952312</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952312</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141981.6787419803</v>
+        <v>-199896.6218773928</v>
       </c>
       <c r="C6" t="n">
-        <v>87345.89623053264</v>
+        <v>107170.3484093249</v>
       </c>
       <c r="D6" t="n">
-        <v>87345.89623053273</v>
+        <v>107170.3484093249</v>
       </c>
       <c r="E6" t="n">
-        <v>120973.4962305326</v>
+        <v>140797.9484093249</v>
       </c>
       <c r="F6" t="n">
-        <v>120973.4962305327</v>
+        <v>140797.9484093249</v>
       </c>
       <c r="G6" t="n">
-        <v>8939.493670225842</v>
+        <v>72519.73783339519</v>
       </c>
       <c r="H6" t="n">
-        <v>171732.7814686673</v>
+        <v>171732.7814686672</v>
       </c>
       <c r="I6" t="n">
         <v>171732.7814686672</v>
       </c>
       <c r="J6" t="n">
-        <v>-7312.476618984685</v>
+        <v>-68006.74811807543</v>
       </c>
       <c r="K6" t="n">
         <v>171732.7814686672</v>
@@ -26552,16 +26554,16 @@
         <v>171732.7814686672</v>
       </c>
       <c r="M6" t="n">
-        <v>171732.7814686672</v>
+        <v>171732.7814686673</v>
       </c>
       <c r="N6" t="n">
-        <v>171732.7814686672</v>
+        <v>171732.7814686673</v>
       </c>
       <c r="O6" t="n">
-        <v>120973.4962305327</v>
+        <v>140797.9484093249</v>
       </c>
       <c r="P6" t="n">
-        <v>120973.4962305327</v>
+        <v>140797.9484093249</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447883</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447883</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>645.4024255556852</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,7 +34871,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34942,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>406.8457045807058</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P6" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>311.4228197911089</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>879.2599254975248</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="N11" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593994</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="N14" t="n">
-        <v>656.6598364408383</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="O18" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1105.865833350039</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36379,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,10 +36448,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>469.2069973599073</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.4482437666393</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.184897788994</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209135</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,13 +37074,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>979.9836670718073</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37394,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>288.7351832965059</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109512</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>916.2813960447883</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>449.5305433373007</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>235.9830129109512</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447883</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>916.2813960447883</v>
       </c>
       <c r="P45" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651196</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>724714.4085062168</v>
+        <v>723093.2500149339</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2305207.638772118</v>
+        <v>2305207.638772116</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6939413.357101317</v>
+        <v>6939413.357101318</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>140.2544921590018</v>
       </c>
       <c r="H2" t="n">
-        <v>243.7924853425797</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>116.0434079398615</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -901,22 +901,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>195.1569564646396</v>
+        <v>211.5190315094746</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>52.06066913184686</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>389.0395914482272</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170461</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>272.4143329405518</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1381,16 +1381,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>195.1569564646393</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1618,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>259.7549311940119</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>119.5736322661456</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>47.61404849749868</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1897,10 +1897,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7884964950073</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>270.3398454666689</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>378.5099231311573</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3991,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>195.5695779437698</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2457.066600207384</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="C2" t="n">
-        <v>2018.924127390807</v>
+        <v>642.8411454753873</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.014342565252</v>
+        <v>642.8411454753873</v>
       </c>
       <c r="E2" t="n">
-        <v>1149.239597723547</v>
+        <v>642.8411454753873</v>
       </c>
       <c r="F2" t="n">
-        <v>721.3721681327547</v>
+        <v>214.973715884595</v>
       </c>
       <c r="G2" t="n">
-        <v>319.9743367560186</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H2" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L2" t="n">
-        <v>73.30251168358309</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M2" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N2" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T2" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U2" t="n">
-        <v>3665.125584179154</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V2" t="n">
-        <v>3302.508634112981</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W2" t="n">
-        <v>3302.508634112981</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X2" t="n">
-        <v>2883.366170692292</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y2" t="n">
-        <v>2883.366170692292</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N3" t="n">
-        <v>980.4210937679237</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O3" t="n">
-        <v>1619.369495068052</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P3" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
         <v>1619.369495068052</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>761.378527806567</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C4" t="n">
-        <v>761.378527806567</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D4" t="n">
-        <v>761.378527806567</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E4" t="n">
-        <v>644.1629642309493</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F4" t="n">
-        <v>467.4559101927056</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G4" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
         <v>159.882196848273</v>
@@ -4512,28 +4512,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2509.302931589751</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.423485168206</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U4" t="n">
-        <v>1984.990484421312</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V4" t="n">
-        <v>1698.034976291742</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W4" t="n">
-        <v>1426.008571878034</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X4" t="n">
-        <v>1180.616817211446</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y4" t="n">
-        <v>953.1971465255542</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1809.413733131072</v>
+        <v>1346.617560718601</v>
       </c>
       <c r="C5" t="n">
-        <v>1371.271260314496</v>
+        <v>908.4750879020241</v>
       </c>
       <c r="D5" t="n">
-        <v>935.3614754889402</v>
+        <v>908.4750879020241</v>
       </c>
       <c r="E5" t="n">
-        <v>501.5867306472353</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="F5" t="n">
-        <v>73.71930105644307</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G5" t="n">
-        <v>73.71930105644307</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71930105644307</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L5" t="n">
-        <v>73.30251168358308</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M5" t="n">
-        <v>980.4210937679236</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N5" t="n">
-        <v>1887.539675852264</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>2290.316923387163</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>3118.62679822056</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U5" t="n">
-        <v>3467.997345325983</v>
+        <v>3367.818122979685</v>
       </c>
       <c r="V5" t="n">
-        <v>3467.997345325983</v>
+        <v>3005.201172913511</v>
       </c>
       <c r="W5" t="n">
-        <v>3063.141890737016</v>
+        <v>2600.345718324545</v>
       </c>
       <c r="X5" t="n">
-        <v>2643.999427316327</v>
+        <v>2181.203254903855</v>
       </c>
       <c r="Y5" t="n">
-        <v>2235.71330361598</v>
+        <v>1772.917131203509</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358308</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L6" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M6" t="n">
-        <v>73.30251168358308</v>
+        <v>1331.043091894594</v>
       </c>
       <c r="N6" t="n">
-        <v>73.30251168358308</v>
+        <v>1331.043091894594</v>
       </c>
       <c r="O6" t="n">
-        <v>258.9073899567783</v>
+        <v>1331.043091894594</v>
       </c>
       <c r="P6" t="n">
-        <v>1078.630556435977</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q6" t="n">
         <v>1619.369495068052</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C7" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D7" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E7" t="n">
         <v>415.6008406959992</v>
@@ -4716,16 +4716,16 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
         <v>434.6406514194085</v>
@@ -4752,10 +4752,10 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T7" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U7" t="n">
         <v>2147.410505375259</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1371.271260314496</v>
+        <v>2098.127098314996</v>
       </c>
       <c r="C8" t="n">
-        <v>1371.271260314496</v>
+        <v>1659.98462549842</v>
       </c>
       <c r="D8" t="n">
-        <v>935.3614754889402</v>
+        <v>1224.074840672864</v>
       </c>
       <c r="E8" t="n">
-        <v>501.5867306472353</v>
+        <v>790.3000958311591</v>
       </c>
       <c r="F8" t="n">
-        <v>73.71930105644307</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="G8" t="n">
-        <v>73.71930105644307</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71930105644307</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L8" t="n">
-        <v>73.30251168358308</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M8" t="n">
-        <v>306.9256944654254</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N8" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>3495.971519426097</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3445.058357052193</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U8" t="n">
-        <v>3392.47182257558</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="V8" t="n">
-        <v>3029.854872509406</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="W8" t="n">
-        <v>2624.99941792044</v>
+        <v>2917.395953091042</v>
       </c>
       <c r="X8" t="n">
-        <v>2205.85695449975</v>
+        <v>2917.395953091042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1797.570830799404</v>
+        <v>2524.426668799904</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358308</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358308</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M9" t="n">
-        <v>73.30251168358308</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N9" t="n">
-        <v>73.30251168358308</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O9" t="n">
-        <v>916.8191066831936</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P9" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
         <v>1736.542273162392</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>782.7963491011951</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C10" t="n">
-        <v>610.2346375844201</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D10" t="n">
-        <v>444.3566447859428</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E10" t="n">
-        <v>274.59864103668</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F10" t="n">
-        <v>97.89158699843622</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
         <v>434.6406514194085</v>
@@ -4989,25 +4989,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T10" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U10" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V10" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W10" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y10" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2006.541971984243</v>
+        <v>1232.117195907627</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.399499167667</v>
+        <v>1232.117195907627</v>
       </c>
       <c r="D11" t="n">
-        <v>1132.489714342111</v>
+        <v>796.2074110820718</v>
       </c>
       <c r="E11" t="n">
-        <v>698.7149695004064</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="F11" t="n">
-        <v>270.8475399096141</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71930105644307</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71930105644307</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>73.30251168358308</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="L11" t="n">
-        <v>943.7698379261326</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.888420010473</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N11" t="n">
-        <v>2758.007002094814</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>3665.125584179154</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>3665.125584179154</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T11" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.125584179154</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V11" t="n">
-        <v>3665.125584179154</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W11" t="n">
-        <v>3260.270129590187</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X11" t="n">
-        <v>2841.127666169498</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y11" t="n">
-        <v>2432.841542469151</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>73.30251168358308</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>73.30251168358308</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="K12" t="n">
-        <v>73.30251168358308</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="L12" t="n">
-        <v>73.30251168358308</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="M12" t="n">
-        <v>73.30251168358308</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="N12" t="n">
-        <v>73.30251168358308</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O12" t="n">
-        <v>980.4210937679236</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P12" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
         <v>1736.542273162392</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.7985487605142</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C13" t="n">
-        <v>751.2368372437392</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D13" t="n">
-        <v>585.3588444452619</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E13" t="n">
-        <v>415.6008406959992</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F13" t="n">
-        <v>238.8937866577554</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
         <v>434.6406514194085</v>
@@ -5223,28 +5223,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.722952543698</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.843506122153</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.410505375259</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.454997245689</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.428592831981</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.036838165393</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.617167479501</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1643.92502191807</v>
+        <v>2331.176221868429</v>
       </c>
       <c r="C14" t="n">
-        <v>1205.782549101493</v>
+        <v>1893.033749051852</v>
       </c>
       <c r="D14" t="n">
-        <v>769.8727642759377</v>
+        <v>1457.123964226297</v>
       </c>
       <c r="E14" t="n">
-        <v>336.0980194342329</v>
+        <v>1023.349219384592</v>
       </c>
       <c r="F14" t="n">
-        <v>73.71930105644307</v>
+        <v>595.4817897937996</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71930105644307</v>
+        <v>194.0839584170635</v>
       </c>
       <c r="H14" t="n">
-        <v>73.71930105644307</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M14" t="n">
-        <v>306.9256944654254</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N14" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O14" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P14" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q14" t="n">
-        <v>3495.971519426097</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T14" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U14" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="V14" t="n">
-        <v>3302.50863411298</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="W14" t="n">
-        <v>2897.653179524013</v>
+        <v>3176.618255774026</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.510716103324</v>
+        <v>2757.475792353337</v>
       </c>
       <c r="Y14" t="n">
-        <v>2070.224592402978</v>
+        <v>2757.475792353337</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>73.30251168358308</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>73.30251168358308</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>73.30251168358308</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>73.30251168358308</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>73.30251168358308</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>980.4210937679236</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
         <v>1736.542273162392</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>893.942719320877</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>721.381007804102</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>555.5030150056247</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>555.5030150056247</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>378.7959609673809</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>213.2046859932086</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
         <v>434.6406514194085</v>
@@ -5463,25 +5463,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2641.867123104061</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2395.987676682516</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2117.554675935621</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1830.599167806052</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1558.572763392343</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1313.181008725756</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1085.761338039864</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
         <v>306.1208027766299</v>
@@ -5545,7 +5545,7 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>210.9600532992111</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,7 +5755,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
         <v>306.120802776629</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3449.802252060173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>3449.802252060173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>3449.802252060173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>4648.527086152673</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>4648.527086152673</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>5113.042013538981</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6417,19 +6417,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4404.345300871277</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4404.345300871277</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4404.345300871277</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324584</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6706,22 +6706,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3343.699788461171</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>3171.138076944395</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>3005.260084145918</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>2835.502080396655</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>2658.795026358412</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5091.624192244353</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>4845.744745822809</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>4567.311745075915</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>4280.356236946345</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>4008.329832532637</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>3762.938077866049</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>3535.518407180158</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,46 +6943,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766281</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987179</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423626</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.088111831086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,7 +7177,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
         <v>306.120802776629</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1643.925021918069</v>
+        <v>1808.996943758212</v>
       </c>
       <c r="C41" t="n">
-        <v>1643.925021918069</v>
+        <v>1370.854470941636</v>
       </c>
       <c r="D41" t="n">
-        <v>1208.015237092513</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E41" t="n">
-        <v>774.2404922508085</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F41" t="n">
-        <v>346.3730626600163</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G41" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L41" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M41" t="n">
-        <v>306.9256944654247</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N41" t="n">
-        <v>1214.044276549765</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2121.162858634105</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P41" t="n">
-        <v>2949.472733467502</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q41" t="n">
-        <v>3495.971519426096</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179153</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179153</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3665.125584179153</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U41" t="n">
-        <v>3665.125584179153</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V41" t="n">
-        <v>3302.50863411298</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="W41" t="n">
-        <v>2897.653179524013</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.510716103323</v>
+        <v>2643.582637943467</v>
       </c>
       <c r="Y41" t="n">
-        <v>2070.224592402977</v>
+        <v>2235.29651424312</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>73.30251168358306</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="K42" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="L42" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="M42" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="N42" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O42" t="n">
         <v>258.9073899567783</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1152.360672295464</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C43" t="n">
-        <v>979.7989607786893</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D43" t="n">
-        <v>813.920967980212</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E43" t="n">
-        <v>644.1629642309493</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F43" t="n">
-        <v>467.4559101927055</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G43" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>161.9624609089077</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
         <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>852.8505331873695</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
         <v>1312.334400368283</v>
@@ -7596,25 +7596,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2689.962121586383</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T43" t="n">
-        <v>2444.082675164838</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U43" t="n">
-        <v>2375.972628910209</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V43" t="n">
-        <v>2089.017120780639</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W43" t="n">
-        <v>1816.990716366931</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X43" t="n">
-        <v>1571.598961700343</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y43" t="n">
-        <v>1344.179291014452</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2006.541971984243</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>1568.399499167666</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>1132.48971434211</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>698.7149695004055</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>270.8475399096132</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G44" t="n">
-        <v>73.30251168358306</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358306</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K44" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L44" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M44" t="n">
-        <v>306.9256944654247</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N44" t="n">
-        <v>1214.044276549765</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O44" t="n">
-        <v>2121.162858634105</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P44" t="n">
-        <v>2949.472733467502</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q44" t="n">
-        <v>3495.971519426096</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179153</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3665.125584179153</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3665.125584179153</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3665.125584179153</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>3665.125584179153</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>3260.270129590186</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>2841.127666169497</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>2432.84154246915</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>73.30251168358306</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="K45" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="L45" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="M45" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="N45" t="n">
-        <v>73.30251168358306</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O45" t="n">
-        <v>980.4210937679234</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P45" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
         <v>1736.542273162392</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
         <v>415.6008406959992</v>
@@ -7797,22 +7797,22 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>73.30251168358306</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
         <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>852.8505331873695</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
         <v>1312.334400368283</v>
@@ -7984,16 +7984,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M2" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>645.4024255556852</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8221,16 +8221,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M5" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O5" t="n">
-        <v>406.8457045807058</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8239,7 +8239,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>828.0031984638366</v>
+        <v>291.2387910843011</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8458,16 +8458,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
-        <v>235.9830129109519</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L11" t="n">
-        <v>879.2599254975248</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>763.7587670651194</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.9830129109519</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>763.7587670651194</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
-        <v>1105.865833350039</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9889,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209135</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>979.9836670718073</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463116</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>433.7499898166689</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>235.9830129109512</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447883</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.9830129109512</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447883</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>916.2813960447883</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>763.7587670651196</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>257.1293609039669</v>
       </c>
       <c r="H2" t="n">
-        <v>42.44636766863616</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.0170157719086</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22789,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>61.47312319151371</v>
+        <v>45.11104814667871</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22992,13 +22992,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>204.5694105243064</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>15.16367101511594</v>
       </c>
     </row>
     <row r="9">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>149.6222418395068</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>202.2268965983294</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>163.8338241008724</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>166.6652207450703</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -23554,7 +23554,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>110.0349065174846</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.146865729423354</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>127.0440075962999</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25681,16 +25681,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>22.29697691191967</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>201.8142751191989</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>529173.462704184</v>
+        <v>529173.4627041842</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>529173.462704184</v>
+        <v>529173.4627041842</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>529173.4627041841</v>
+        <v>529173.4627041842</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>529173.462704184</v>
+        <v>529173.4627041842</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>529173.462704184</v>
+        <v>529173.4627041841</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>529173.462704184</v>
+        <v>529173.4627041842</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>197143.0547329314</v>
       </c>
       <c r="C2" t="n">
-        <v>197143.0547329313</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="D2" t="n">
-        <v>197143.0547329313</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="E2" t="n">
         <v>197143.0547329314</v>
       </c>
       <c r="F2" t="n">
-        <v>197143.0547329313</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="G2" t="n">
         <v>250257.3524652424</v>
@@ -26352,10 +26352,10 @@
         <v>250257.3524652424</v>
       </c>
       <c r="O2" t="n">
-        <v>197143.0547329313</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="P2" t="n">
-        <v>197143.0547329313</v>
+        <v>197143.0547329314</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867177</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527209</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>635.1974440833578</v>
       </c>
       <c r="F4" t="n">
-        <v>635.1974440833578</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
@@ -26450,16 +26450,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>635.1974440833576</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="P4" t="n">
-        <v>635.1974440833577</v>
+        <v>635.1974440833579</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952312</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952312</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199896.6218773928</v>
+        <v>-200199.3951522087</v>
       </c>
       <c r="C6" t="n">
-        <v>107170.3484093249</v>
+        <v>106867.575134509</v>
       </c>
       <c r="D6" t="n">
-        <v>107170.3484093249</v>
+        <v>106867.575134509</v>
       </c>
       <c r="E6" t="n">
-        <v>140797.9484093249</v>
+        <v>140495.175134509</v>
       </c>
       <c r="F6" t="n">
-        <v>140797.9484093249</v>
+        <v>140495.175134509</v>
       </c>
       <c r="G6" t="n">
-        <v>72519.73783339519</v>
+        <v>72496.51349401264</v>
       </c>
       <c r="H6" t="n">
-        <v>171732.7814686672</v>
+        <v>171709.5571292846</v>
       </c>
       <c r="I6" t="n">
-        <v>171732.7814686672</v>
+        <v>171709.5571292846</v>
       </c>
       <c r="J6" t="n">
-        <v>-68006.74811807543</v>
+        <v>-68029.97245745812</v>
       </c>
       <c r="K6" t="n">
-        <v>171732.7814686672</v>
+        <v>171709.5571292846</v>
       </c>
       <c r="L6" t="n">
-        <v>171732.7814686672</v>
+        <v>171709.5571292846</v>
       </c>
       <c r="M6" t="n">
-        <v>171732.7814686673</v>
+        <v>171709.5571292846</v>
       </c>
       <c r="N6" t="n">
-        <v>171732.7814686673</v>
+        <v>171709.5571292846</v>
       </c>
       <c r="O6" t="n">
-        <v>140797.9484093249</v>
+        <v>140495.175134509</v>
       </c>
       <c r="P6" t="n">
-        <v>140797.9484093249</v>
+        <v>140495.1751345091</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447883</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447883</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34704,16 +34704,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M2" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458551</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>645.4024255556852</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34941,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M5" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O5" t="n">
-        <v>406.8457045807058</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458551</v>
@@ -34959,7 +34959,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>828.0031984638366</v>
+        <v>291.2387910843011</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35178,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
-        <v>235.9830129109519</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L11" t="n">
-        <v>879.2599254975248</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>763.7587670651194</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.9830129109519</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>763.7587670651194</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
-        <v>1105.865833350039</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.184897788994</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209135</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>979.9836670718073</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37089,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463116</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>433.7499898166689</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37545,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37788,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>235.9830129109512</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447883</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38025,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.9830129109512</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447883</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>916.2813960447883</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>763.7587670651196</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
